--- a/Tugas Cyber Security/Cyber Security.xlsx
+++ b/Tugas Cyber Security/Cyber Security.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\OneDrive\Dokumen\Metodologi Penelitian\Tugas Cyber Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{726083AB-7C4E-4F44-AF4F-56E0AD3AA4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FA60C0-0F39-4BA3-AD44-7797D6B68FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15225" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Judul </t>
   </si>
@@ -79,6 +79,53 @@
   </si>
   <si>
     <t>Relavan</t>
+  </si>
+  <si>
+    <t>Cloud Security</t>
+  </si>
+  <si>
+    <t>Studi ini menghasilkan wawasan yang signifikan tentang solusi keamanan siber, termasuk pemanfaatan teknologi baru seperti big data, blockchain, dan AI untuk memperkuat pertahanan siber. Penelitian ini menekankan pentingnya solusi teknis dan non-teknis yang kolaboratif untuk meminimalkan risiko dalam lingkungan cloud dan jaringan.</t>
+  </si>
+  <si>
+    <t>Cybersecurity Vulnerabilities and Remediation Through Cloud Security Tools</t>
+  </si>
+  <si>
+    <t>FNU Jimmy</t>
+  </si>
+  <si>
+    <t>Journal of Artificial Intelligence General Science (JAIGS)</t>
+  </si>
+  <si>
+    <t>Studi ini membahas peningkatan ancaman siber akibat digitalisasi, terutama pada keamanan cloud. Penelitian ini bertujuan untuk mengeksplorasi metodologi dan teknologi mutakhir untuk mendeteksi dan mengurangi serangan siber yang semakin kompleks.</t>
+  </si>
+  <si>
+    <t>12-Maret-2024</t>
+  </si>
+  <si>
+    <t>Jurnal ini mengimplementasikan metodologi analisis konseptual yang mengidentifikasi kerentanan keamanan, metodologi deteksi, serta strategi mitigasi menggunakan teknologi terkini.</t>
+  </si>
+  <si>
+    <t>Penelitian ini menggunakan pendekatan tinjauan literatur yang mendalam untuk menggali berbagai solusi teknis dan non-teknis dalam mengatasi kerentanan keamanan cloud.</t>
+  </si>
+  <si>
+    <t>Machine Learning: Digunakan untuk deteksi anomali, pengklasifikasian malware, identifikasi phishing, dan penilaian risiko. Algoritma machine learning seperti klasifikasi, deteksi outlier, dan pengenalan pola diimplementasikan untuk meningkatkan akurasi dalam mendeteksi ancaman siber.
+Deep Learning: Dimanfaatkan dalam deteksi ancaman dengan memproses data besar (big data) untuk meningkatkan ketepatan dalam identifikasi pola serangan yang lebih kompleks.
+Blockchain: Diterapkan untuk menjaga integritas data dan transparansi dalam sistem keamanan cloud, terutama dalam mendeteksi perubahan data dan pelacakan aktivitas yang mencurigakan.</t>
+  </si>
+  <si>
+    <t>Fokus pada integrasi teknologi canggih (machine learning, deep learning, blockchain).
+Cakupan luas tentang tantangan dan vektor serangan keamanan siber.
+Rekomendasi praktis terkait keamanan cloud dan jaringan.</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada machine learning yang rentan terhadap taktik penghindaran dan bias dalam model algoritma.
+Solusi non-teknis dibahas, namun kelayakan implementasi di aplikasi nyata kurang mendalam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/5</t>
+  </si>
+  <si>
+    <t>10/26/2024 Filbert Wijaya</t>
   </si>
 </sst>
 </file>
@@ -172,16 +219,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,17 +566,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129348A8-1C1A-4064-979B-57C2723345AF}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="C5:J13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.77734375" customWidth="1"/>
+    <col min="8" max="9" width="39.44140625" customWidth="1"/>
+    <col min="10" max="10" width="68.5546875" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,6 +598,12 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -557,37 +634,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+    <row r="6" spans="1:10" ht="140.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+    <row r="8" spans="1:10" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
@@ -597,22 +692,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="1:10" ht="61.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7AD250DB415C4FB5867649A57761AA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5453886a6cd3b6f266e49a5bb2bbff1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc" xmlns:ns4="84555582-1fd8-462d-916c-584d43361c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ff136199dbbf9c5158804c9410598b8" ns3:_="" ns4:_="">
     <xsd:import namespace="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc"/>
@@ -851,15 +964,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -869,6 +973,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BFF3F2-E4BC-493A-A0DA-3AF5FC7C25C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -883,14 +995,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tugas Cyber Security/Cyber Security.xlsx
+++ b/Tugas Cyber Security/Cyber Security.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\OneDrive\Dokumen\Metodologi Penelitian\Tugas Cyber Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FA60C0-0F39-4BA3-AD44-7797D6B68FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D5286-13B5-4776-AE80-860F9C506B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15225" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t xml:space="preserve">Judul </t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Studi ini membahas peningkatan ancaman siber akibat digitalisasi, terutama pada keamanan cloud. Penelitian ini bertujuan untuk mengeksplorasi metodologi dan teknologi mutakhir untuk mendeteksi dan mengurangi serangan siber yang semakin kompleks.</t>
-  </si>
-  <si>
-    <t>12-Maret-2024</t>
   </si>
   <si>
     <t>Jurnal ini mengimplementasikan metodologi analisis konseptual yang mengidentifikasi kerentanan keamanan, metodologi deteksi, serta strategi mitigasi menggunakan teknologi terkini.</t>
@@ -122,10 +119,145 @@
 Solusi non-teknis dibahas, namun kelayakan implementasi di aplikasi nyata kurang mendalam.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5/5</t>
-  </si>
-  <si>
     <t>10/26/2024 Filbert Wijaya</t>
+  </si>
+  <si>
+    <t>Security Attacks in Cloud Computing and Corresponding Defending Mechanisms</t>
+  </si>
+  <si>
+    <t>Hesham Abusaimeh</t>
+  </si>
+  <si>
+    <t>Maret-2024</t>
+  </si>
+  <si>
+    <t>Mei-Juni 2020</t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Trends in Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t>Jurnal mengkaji berbagai serangan keamanan pada cloud computing, termasuk serangan brute force, replay, phishing, man-in-the-middle, dan lainnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menggunakan pendekatan survei untuk meninjau serangan autentikasi di cloud dan studi-studi terkait pertahanan.</t>
+  </si>
+  <si>
+    <t>Menggunakan literatur untuk mengidentifikasi serangan dan solusi pertahanan terkait.</t>
+  </si>
+  <si>
+    <t>K-means untuk deteksi brute force dan WS-Security untuk serangan MITM.</t>
+  </si>
+  <si>
+    <t>Kombinasi berbagai mekanisme protektif, seperti password berbasis gambar, dapat mengurangi risiko serangan autentikasi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memberikan ulasan komprehensif tentang jenis serangan keamanan di cloud dan solusi untuk setiap jenis serangan.</t>
+  </si>
+  <si>
+    <t>Tidak mencakup solusi mendalam untuk semua jenis serangan dan tidak menguji efektivitas solusi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/27/2024 Filbert Wijaya </t>
+  </si>
+  <si>
+    <t>Cloud Security Issues in Present Day Context</t>
+  </si>
+  <si>
+    <t>Zhimin Guan, Dr. Rama Bhatia</t>
+  </si>
+  <si>
+    <t>Desember 2022</t>
+  </si>
+  <si>
+    <t>ScienceOpen Preprints</t>
+  </si>
+  <si>
+    <t>Isu utama keamanan cloud, multi-tenancy, dan risiko model layanan cloud seperti IaaS, PaaS, SaaS</t>
+  </si>
+  <si>
+    <t>Studi kualitatif berbasis literatur yang menggunakan pendekatan sistematis (PRISMA) untuk memilih artikel terkait cloud security dari sumber tepercaya seperti IEEE dan Springer.</t>
+  </si>
+  <si>
+    <t>Analisis teks untuk menyusun dan mengelompokkan ancaman keamanan cloud, tanpa penggunaan uji praktis atau alat AI.</t>
+  </si>
+  <si>
+    <t>Klasifikasi ancaman keamanan berdasarkan level layanan dan model penyebaran cloud.</t>
+  </si>
+  <si>
+    <t>Daftar ancaman cloud, teknik mitigasi seperti enkripsi dan pengelolaan kunci.</t>
+  </si>
+  <si>
+    <t>Komprehensif dan terstruktur dalam klasifikasi ancaman keamanan.</t>
+  </si>
+  <si>
+    <t>Tidak ada uji praktis atau contoh implementasi mitigasi.</t>
+  </si>
+  <si>
+    <t>Securing Machine Learning in the Cloud: A Systematic Review of Cloud Machine Learning Security</t>
+  </si>
+  <si>
+    <t>Adnan Qayyum, Aneeqa Ijaz, Muhammad Usama, Waleed Iqbal, Junaid Qadir, Yehia Elkhatib, Ala Al-Fuqaha</t>
+  </si>
+  <si>
+    <t>Novemberr 2020</t>
+  </si>
+  <si>
+    <t>Frontiers in Big Data</t>
+  </si>
+  <si>
+    <t>Keamanan Machine Learning as a Service (MLaaS) dan tantangan serangan serta pertahanan pada cloud ML/DL.</t>
+  </si>
+  <si>
+    <t>Tinjauan sistematis menggunakan protokol PRISMA untuk memilih artikel terkait dari delapan pustaka utama.</t>
+  </si>
+  <si>
+    <t>Analisis literatur pada serangan dan metode pertahanan untuk cloud-hosted ML/DL, dengan fokus pada serangan dan mitigasinya.</t>
+  </si>
+  <si>
+    <t>Tidak ada algoritma spesifik yang dikembangkan; penelitian mengkategorikan tipe serangan dan pertahanan terhadap cloud-hosted ML/DL.</t>
+  </si>
+  <si>
+    <t>Mengidentifikasi ancaman seperti serangan black-box, white-box, dan metode mitigasi seperti homomorphic encryption.</t>
+  </si>
+  <si>
+    <t>Artikel ini menyajikan ikhtisar komprehensif mengenai serangan dan pertahanan pada cloud ML/DL, serta menyusun taksonomi yang terperinci.</t>
+  </si>
+  <si>
+    <t>Tidak ada eksperimen langsung untuk mengevaluasi efektivitas pertahanan yang diusulkan.</t>
+  </si>
+  <si>
+    <t>Effective Intrusion Detection System to Secure Data in Cloud Using Machine Learning</t>
+  </si>
+  <si>
+    <t>Ammar Aldallal, Faisal Alisa</t>
+  </si>
+  <si>
+    <t>Desember 2021</t>
+  </si>
+  <si>
+    <t>MDPI Symmetry</t>
+  </si>
+  <si>
+    <t>Mendeteksi dan melindungi data cloud dari serangan intrusi dengan sistem deteksi intrusi berbasis machine learning.</t>
+  </si>
+  <si>
+    <t>Studi berbasis eksperimen menggunakan dataset CICIDS2017 untuk menguji sistem deteksi intrusi yang diusulkan.</t>
+  </si>
+  <si>
+    <t>Menggabungkan algoritma Support Vector Machine (SVM) dan Genetic Algorithm (GA) untuk meningkatkan akurasi sistem.</t>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM) dan Genetic Algorithm (GA) digunakan secara paralel untuk memilih fitur dan meningkatkan akurasi.</t>
+  </si>
+  <si>
+    <t>Model ini menunjukkan peningkatan performa hingga 5.74% dibandingkan benchmark lain menggunakan dataset KDD CUP 99 dan NSL-KDD.</t>
+  </si>
+  <si>
+    <t>Efisiensi tinggi dalam mendeteksi serangan cloud melalui kombinasi GA dan SVM, meningkatkan simetri antara keamanan data dan deteksi intrusi.</t>
+  </si>
+  <si>
+    <t>Hanya diuji menggunakan dataset CICIDS2017, tidak mencakup uji dunia nyata atau implementasi langsung di cloud.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -193,17 +325,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -215,25 +336,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,12 +375,54 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,19 +737,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129348A8-1C1A-4064-979B-57C2723345AF}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.88671875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="76.77734375" customWidth="1"/>
     <col min="7" max="7" width="55.77734375" customWidth="1"/>
     <col min="8" max="9" width="39.44140625" customWidth="1"/>
     <col min="10" max="10" width="68.5546875" customWidth="1"/>
@@ -602,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -621,111 +794,661 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="140.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="H9" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75.3" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="61.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+    <row r="30" spans="2:8" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>27</v>
+      <c r="D32" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="2:8" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="3:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="22"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C8:J8"/>
+  <mergeCells count="36">
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7AD250DB415C4FB5867649A57761AA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5453886a6cd3b6f266e49a5bb2bbff1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc" xmlns:ns4="84555582-1fd8-462d-916c-584d43361c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ff136199dbbf9c5158804c9410598b8" ns3:_="" ns4:_="">
     <xsd:import namespace="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc"/>
@@ -964,6 +1687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -973,14 +1705,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BFF3F2-E4BC-493A-A0DA-3AF5FC7C25C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -995,6 +1719,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tugas Cyber Security/Cyber Security.xlsx
+++ b/Tugas Cyber Security/Cyber Security.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\OneDrive\Dokumen\Metodologi Penelitian\Tugas Cyber Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D5286-13B5-4776-AE80-860F9C506B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E4B4D-A7C0-4F44-91DE-DFBD3BCBA871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15225" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="15094" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t xml:space="preserve">Judul </t>
   </si>
@@ -258,6 +258,36 @@
   </si>
   <si>
     <t>Hanya diuji menggunakan dataset CICIDS2017, tidak mencakup uji dunia nyata atau implementasi langsung di cloud.</t>
+  </si>
+  <si>
+    <t>Cloud Security Metrics and Measurement</t>
+  </si>
+  <si>
+    <t>Sina Ahmadi</t>
+  </si>
+  <si>
+    <t>Journal of Knowledge Learning and Science Technology</t>
+  </si>
+  <si>
+    <t>Studi ini membahas kebutuhan metrik dan pengukuran yang efektif untuk menilai keamanan cloud. Jurnal ini mengeksplorasi bagaimana kerangka kerja saat ini, seperti NIST SP 800-53 dan ISO/IEC 27001, dapat membantu organisasi menerapkan protokol keamanan cloud yang kuat. Studi ini juga menyoroti kurangnya metrik standar untuk keamanan cloud dan tantangan dalam beradaptasi dengan ancaman yang terus berkembang.</t>
+  </si>
+  <si>
+    <t>Metode penelitian kualitatif dengan tinjauan pustaka.</t>
+  </si>
+  <si>
+    <t>Analisis studi dan kerangka kerja yang ada, termasuk ISO/IEC 27001 dan NIST SP 800-53, serta pendekatan tematik untuk mengidentifikasi metrik dan tantangan keamanan cloud yang sering muncul.</t>
+  </si>
+  <si>
+    <t>Bayesian Networks, entropi Shannon, dan simulasi Monte Carlo untuk menilai aspek kerahasiaan dan integritas dalam keamanan cloud.</t>
+  </si>
+  <si>
+    <t>Studi ini mengidentifikasi kebutuhan metrik yang dapat disesuaikan dan distandarisasi serta menunjukkan bagaimana model yang ada dapat mendukung evaluasi keamanan cloud, terutama dalam aspek kerahasiaan, integritas, dan ketersediaan.</t>
+  </si>
+  <si>
+    <t>Memberikan pandangan menyeluruh mengenai kerangka kerja keamanan cloud dan mengusulkan metrik yang distandarisasi. Studi ini juga mengintegrasikan beberapa kerangka kerja yang memungkinkan pendekatan holistik terhadap keamanan cloud.</t>
+  </si>
+  <si>
+    <t>Mengandalkan tinjauan kualitatif tanpa validasi eksperimental; efektivitas studi ini di dunia nyata terbatas tanpa pengujian empiris.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -377,52 +407,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129348A8-1C1A-4064-979B-57C2723345AF}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -756,7 +787,7 @@
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -764,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -778,7 +809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -795,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
@@ -809,63 +840,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="75.3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="75.3" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
@@ -885,12 +904,12 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -929,17 +948,17 @@
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
@@ -948,34 +967,26 @@
       <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -997,7 +1008,7 @@
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1019,52 +1030,62 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45017</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="2:8" ht="77.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="15"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="13"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
@@ -1074,15 +1095,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+    <row r="45" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="20"/>
+      <c r="D47" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50">
@@ -1119,53 +1146,45 @@
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="2:8" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="21" t="s">
+      <c r="F54" s="15"/>
+      <c r="G54" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="22"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
@@ -1187,7 +1206,7 @@
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1226,17 +1245,17 @@
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="13" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="14"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
@@ -1245,34 +1264,26 @@
       <c r="D69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="21" t="s">
+      <c r="F69" s="15"/>
+      <c r="G69" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="22"/>
+      <c r="H69" s="15"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
@@ -1283,7 +1294,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -1294,7 +1305,7 @@
       <c r="C77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1333,17 +1344,17 @@
       <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="13" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="14"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" spans="3:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
@@ -1352,34 +1363,26 @@
       <c r="D84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="21" t="s">
+      <c r="F84" s="15"/>
+      <c r="G84" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H84" s="22"/>
+      <c r="H84" s="15"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
@@ -1390,7 +1393,7 @@
       </c>
     </row>
     <row r="90" spans="3:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D90" s="4" t="s">
@@ -1401,17 +1404,34 @@
       <c r="C92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="8">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="G84:H84"/>
@@ -1421,34 +1441,26 @@
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E83:F83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7AD250DB415C4FB5867649A57761AA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5453886a6cd3b6f266e49a5bb2bbff1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc" xmlns:ns4="84555582-1fd8-462d-916c-584d43361c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ff136199dbbf9c5158804c9410598b8" ns3:_="" ns4:_="">
     <xsd:import namespace="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc"/>
@@ -1687,15 +1699,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1705,6 +1708,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BFF3F2-E4BC-493A-A0DA-3AF5FC7C25C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1719,14 +1730,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tugas Cyber Security/Cyber Security.xlsx
+++ b/Tugas Cyber Security/Cyber Security.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\OneDrive\Dokumen\Metodologi Penelitian\Tugas Cyber Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E4B4D-A7C0-4F44-91DE-DFBD3BCBA871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59ADBC3-01A5-4294-BDEE-0BA90E7974D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="15094" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t xml:space="preserve">Judul </t>
   </si>
@@ -288,12 +288,50 @@
   </si>
   <si>
     <t>Mengandalkan tinjauan kualitatif tanpa validasi eksperimental; efektivitas studi ini di dunia nyata terbatas tanpa pengujian empiris.</t>
+  </si>
+  <si>
+    <t>Phising Attack Detection</t>
+  </si>
+  <si>
+    <t>Eduardo Benavides-Astudillo, Walter Fuertes, Sandra Sanchez-Gordon, Daniel Nuñez-Agurto, Germán Rodríguez-Galán</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t>MDPI, Applied Sciences</t>
+  </si>
+  <si>
+    <t>Jurnal ini membahas masalah deteksi serangan phishing melalui model yang didasarkan pada analisis teks dari halaman web menggunakan Natural Language Processing (NLP) dan Deep Learning (DL)</t>
+  </si>
+  <si>
+    <t>Studi ini menggunakan metodologi bertahap yang meliputi pemrosesan teks, pra-pemrosesan NLP, ekstraksi fitur dengan embedding GloVe, dan penerapan model DL untuk mengklasifikasikan antara halaman phishing dan halaman yang sah (ham). Model ini menggunakan Keras Embedding dengan GloVe untuk representasi fitur, diikuti dengan perbandingan antara empat model DL: LSTM, BiLSTM, GRU, dan BiGRU</t>
+  </si>
+  <si>
+    <t>Penggunaan NLP dengan embedding GloVe dan empat model Deep Learning (LSTM, BiLSTM, GRU, BiGRU) untuk mendeteksi phishing dari teks halaman web</t>
+  </si>
+  <si>
+    <t>Empat algoritma Deep Learning yang digunakan: LSTM (Long Short-Term Memory), BiLSTM (Bidirectional LSTM), GRU (Gated Recurrent Unit), BiGRU (Bidirectional GRU)</t>
+  </si>
+  <si>
+    <t>Dari keempat algoritma, BiGRU mencapai akurasi tertinggi, yaitu 97,39%. BiGRU unggul karena pemrosesan bidirectional, yang mempertimbangkan konteks dari kata sebelum dan sesudah dalam kalimat</t>
+  </si>
+  <si>
+    <t>Akurasi Tinggi: Algoritma BiGRU menunjukkan akurasi tinggi dalam deteksi phishing.
+Pendekatan Berbasis Teks: Mampu mendeteksi phishing dari konten teks, bukan hanya URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biaya Komputasi Tinggi: Algoritma bidirectional (seperti BiGRU) membutuhkan waktu pelatihan lebih lama.
+Keterbatasan Panjang Teks: Performa menurun pada teks dengan kurang dari 200 kata </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -415,23 +453,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -451,8 +474,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,17 +809,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129348A8-1C1A-4064-979B-57C2723345AF}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D110" sqref="C110:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.88671875" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="76.77734375" customWidth="1"/>
     <col min="7" max="7" width="55.77734375" customWidth="1"/>
@@ -847,14 +888,14 @@
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -863,26 +904,26 @@
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
@@ -951,14 +992,14 @@
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
@@ -967,26 +1008,26 @@
       <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="2:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -1050,42 +1091,42 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="18"/>
+      <c r="G38" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" ht="77.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="14" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
@@ -1149,14 +1190,14 @@
       <c r="D53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="10" t="s">
+      <c r="F53" s="18"/>
+      <c r="G53" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
@@ -1165,26 +1206,26 @@
       <c r="D54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="14" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="11"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="13"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
@@ -1248,14 +1289,14 @@
       <c r="D68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="10" t="s">
+      <c r="F68" s="18"/>
+      <c r="G68" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
@@ -1264,26 +1305,26 @@
       <c r="D69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="14" t="s">
+      <c r="F69" s="20"/>
+      <c r="G69" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="15"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="11"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="13"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
@@ -1347,14 +1388,14 @@
       <c r="D83" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="10" t="s">
+      <c r="F83" s="18"/>
+      <c r="G83" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="3:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
@@ -1363,26 +1404,26 @@
       <c r="D84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="14" t="s">
+      <c r="F84" s="20"/>
+      <c r="G84" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H84" s="15"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="13"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
@@ -1408,30 +1449,120 @@
         <v>5</v>
       </c>
     </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="3:8" ht="105.4" x14ac:dyDescent="0.3">
+      <c r="C102" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="18"/>
+    </row>
+    <row r="105" spans="3:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C108" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
+  <mergeCells count="42">
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="G84:H84"/>
@@ -1441,26 +1572,34 @@
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7AD250DB415C4FB5867649A57761AA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5453886a6cd3b6f266e49a5bb2bbff1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc" xmlns:ns4="84555582-1fd8-462d-916c-584d43361c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ff136199dbbf9c5158804c9410598b8" ns3:_="" ns4:_="">
     <xsd:import namespace="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc"/>
@@ -1699,6 +1838,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1708,14 +1856,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BFF3F2-E4BC-493A-A0DA-3AF5FC7C25C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1730,6 +1870,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tugas Cyber Security/Cyber Security.xlsx
+++ b/Tugas Cyber Security/Cyber Security.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\OneDrive\Dokumen\Metodologi Penelitian\Tugas Cyber Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59ADBC3-01A5-4294-BDEE-0BA90E7974D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13014183-4A8D-4651-B1A6-3116AE1A055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="15094" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15225" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t xml:space="preserve">Judul </t>
   </si>
@@ -323,6 +323,42 @@
   <si>
     <t xml:space="preserve">Biaya Komputasi Tinggi: Algoritma bidirectional (seperti BiGRU) membutuhkan waktu pelatihan lebih lama.
 Keterbatasan Panjang Teks: Performa menurun pada teks dengan kurang dari 200 kata </t>
+  </si>
+  <si>
+    <t>Phishing Attacks: A Recent Comprehensive Study and a New Anatomy</t>
+  </si>
+  <si>
+    <t>Zainab Alkhalil, Chaminda Hewage, Liqaa Nawaf, dan Imtiaz Khan</t>
+  </si>
+  <si>
+    <t>Maret 2021</t>
+  </si>
+  <si>
+    <t>Frontiers in Computer Science</t>
+  </si>
+  <si>
+    <t>Jurnal ini menyoroti peningkatan serangan phishing, evolusi teknik-teknik phishing, dan mengkaji anatomi phishing yang kompleks. Masalah utama adalah bagaimana phishing berkembang menjadi ancaman keamanan yang signifikan di internet, yang mencakup cara untuk menipu pengguna agar mengungkapkan informasi sensitif.</t>
+  </si>
+  <si>
+    <t>Penelitian ini mengklasifikasikan jenis-jenis serangan phishing berdasarkan fase-fase anatomi serangan, tipe pelaku, kerentanan, dan teknik serangan yang digunakan. Mereka juga mengkaji langkah-langkah pencegahan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jurnal ini menggunakan pendekatan tinjauan literatur dan analisis kasus nyata untuk mendalami fase-fase serangan phishing serta menciptakan anatomi baru yang meliputi empat fase utama: perencanaan, persiapan, pelaksanaan serangan, dan akuisisi informasi berharga. </t>
+  </si>
+  <si>
+    <t>Penelitian ini lebih berfokus pada penyusunan tahapan dan teknik untuk pemahaman yang lebih mendalam tentang anatomi serangan phishing.</t>
+  </si>
+  <si>
+    <t>Hasil dari penelitian ini adalah penyusunan anatomi phishing yang rinci yang menggambarkan seluruh siklus hidup serangan phishing dari awal hingga akhir. Anatomi ini diharapkan dapat membantu pembaca memahami serangan phishing dengan lebih baik dan meningkatkan kesadaran serta pengembangan sistem anti-phishing.</t>
+  </si>
+  <si>
+    <t>Jurnal ini memberikan pemahaman yang komprehensif mengenai anatomi serangan phishing dan mencakup aspek psikologis dan teknik-teknik sosial yang digunakan oleh pelaku untuk menyerang korban. Hal ini memberikan landasan yang baik untuk merancang langkah-langkah pencegahan yang lebih efektif.</t>
+  </si>
+  <si>
+    <t>Jurnal ini tidak memberikan algoritma deteksi spesifik atau solusi teknis yang mendalam, sehingga kurang relevan bagi yang mencari pendekatan berbasis machine learning atau algoritma untuk deteksi phishing.</t>
+  </si>
+  <si>
+    <t>UNTUK REPOSITORY</t>
   </si>
 </sst>
 </file>
@@ -330,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -341,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +387,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,6 +510,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -474,27 +549,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,17 +890,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129348A8-1C1A-4064-979B-57C2723345AF}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D110" sqref="C110:D110"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="22" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.88671875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="4" max="4" width="58.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="76.77734375" customWidth="1"/>
     <col min="7" max="7" width="55.77734375" customWidth="1"/>
@@ -888,14 +969,14 @@
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -904,26 +985,26 @@
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
@@ -992,14 +1073,14 @@
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
@@ -1008,26 +1089,26 @@
       <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="19" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -1077,8 +1158,8 @@
       <c r="D36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="3">
-        <v>45017</v>
+      <c r="E36" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>75</v>
@@ -1091,14 +1172,14 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" ht="77.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
@@ -1107,26 +1188,26 @@
       <c r="D39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
@@ -1190,14 +1271,14 @@
       <c r="D53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17" t="s">
+      <c r="F53" s="15"/>
+      <c r="G53" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="18"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
@@ -1206,26 +1287,26 @@
       <c r="D54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="19" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="20"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="18"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
@@ -1289,14 +1370,14 @@
       <c r="D68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="17" t="s">
+      <c r="F68" s="15"/>
+      <c r="G68" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="18"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
@@ -1305,26 +1386,26 @@
       <c r="D69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="19" t="s">
+      <c r="F69" s="17"/>
+      <c r="G69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="20"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="18"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
@@ -1388,14 +1469,14 @@
       <c r="D83" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="18"/>
-      <c r="G83" s="17" t="s">
+      <c r="F83" s="15"/>
+      <c r="G83" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="18"/>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="3:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
@@ -1404,26 +1485,26 @@
       <c r="D84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="19" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H84" s="20"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="18"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="22"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
@@ -1455,16 +1536,16 @@
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1475,7 +1556,7 @@
       <c r="D99" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -1483,20 +1564,20 @@
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="18"/>
-      <c r="G101" s="17" t="s">
+      <c r="F101" s="27"/>
+      <c r="G101" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H101" s="18"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102" spans="3:8" ht="105.4" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
@@ -1505,32 +1586,32 @@
       <c r="D102" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="19" t="s">
+      <c r="F102" s="17"/>
+      <c r="G102" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H102" s="20"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="18"/>
+      <c r="D104" s="27"/>
     </row>
     <row r="105" spans="3:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D105" s="22"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1543,26 +1624,254 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="8">
         <v>5</v>
       </c>
     </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C113" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="3:8" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C117" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="3:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="13"/>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C122" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="20"/>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C125" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C130" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C131" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C134" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="32"/>
+      <c r="G134" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="32"/>
+    </row>
+    <row r="135" spans="3:8" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C135" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135" s="17"/>
+      <c r="G135" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C137" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="32"/>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C138" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D138" s="13"/>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C140" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="33"/>
+    </row>
+    <row r="141" spans="3:8" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C141" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="20"/>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C143" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E83:F83"/>
+  <mergeCells count="58">
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="G84:H84"/>
@@ -1572,34 +1881,32 @@
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7AD250DB415C4FB5867649A57761AA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5453886a6cd3b6f266e49a5bb2bbff1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc" xmlns:ns4="84555582-1fd8-462d-916c-584d43361c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ff136199dbbf9c5158804c9410598b8" ns3:_="" ns4:_="">
     <xsd:import namespace="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc"/>
@@ -1838,15 +2145,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1856,6 +2154,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BFF3F2-E4BC-493A-A0DA-3AF5FC7C25C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1870,14 +2176,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tugas Cyber Security/Cyber Security.xlsx
+++ b/Tugas Cyber Security/Cyber Security.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filbe\OneDrive\Dokumen\Metodologi Penelitian\Tugas Cyber Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13014183-4A8D-4651-B1A6-3116AE1A055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F34CEC3-9F5C-43A1-A853-2AC41341BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15225" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
+    <workbookView xWindow="13" yWindow="1872" windowWidth="18982" windowHeight="13117" xr2:uid="{1A90EFCB-5F87-43B7-ABE3-D8B5D4814BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="124">
   <si>
     <t xml:space="preserve">Judul </t>
   </si>
@@ -359,6 +359,63 @@
   </si>
   <si>
     <t>UNTUK REPOSITORY</t>
+  </si>
+  <si>
+    <t>Iot</t>
+  </si>
+  <si>
+    <t>Cybersecurity Risk Analysis in the IoT: A Systematic Review</t>
+  </si>
+  <si>
+    <t>Thanaa Saad AlSalem, Mohammed Amin Almaiah, Abdalwali Lutfi</t>
+  </si>
+  <si>
+    <t>September 2023</t>
+  </si>
+  <si>
+    <t>MDPI Electronics</t>
+  </si>
+  <si>
+    <t>Artikel ini menyelidiki berbagai risiko keamanan siber yang terkait dengan perangkat IoT, menyoroti kekhawatiran yang semakin meningkat terkait privasi dan banyaknya kejahatan siber. Artikel ini juga mengatasi kekurangan yang ada dalam kerangka keamanan siber untuk IoT saat ini.</t>
+  </si>
+  <si>
+    <t>Tinjauan ini mengkategorikan berbagai jenis serangan dan mengevaluasi efektivitas berbagai pendekatan keamanan siber, dengan fokus khusus pada teknik pembelajaran mesin untuk deteksi ancaman dan tindakan balasan.</t>
+  </si>
+  <si>
+    <t>Studi ini menggunakan tinjauan literatur sistematis untuk memeriksa 40 artikel yang mencakup tantangan dan serangan dalam keamanan siber IoT, serta kerangka dan solusi yang diusulkan dalam literatur.</t>
+  </si>
+  <si>
+    <t>Artikel ini membahas penerapan algoritma pembelajaran mesin, meskipun algoritma spesifik tidak dijelaskan secara mendalam dalam ringkasan. Fokusnya adalah pada kepraktisan algoritma ini dalam aplikasi dunia nyata.</t>
+  </si>
+  <si>
+    <t>Tinjauan menemukan bahwa masalah privasi dan kejahatan siber adalah perhatian utama dalam keamanan IoT. Artikel ini juga menekankan potensi kecerdasan buatan untuk meningkatkan upaya keamanan siber di masa depan. Namun, beberapa serangan, seperti yang menargetkan kerahasiaan dan koneksi server data, tetap kurang ditangani.</t>
+  </si>
+  <si>
+    <t>Tinjauan literatur yang komprehensif yang mensintesis sejumlah besar penelitian.
+Menyoroti tren yang muncul dan kekurangan dalam lanskap penelitian saat ini, terutama dalam penilaian dampak ekonomi dan keamanan IoT industri.
+Menawarkan wawasan berharga tentang efektivitas pembelajaran mesin dalam meningkatkan keamanan IoT.</t>
+  </si>
+  <si>
+    <t>Beberapa serangan tetap kurang dieksplorasi dalam solusi yang ada, menunjukkan bahwa lebih banyak penelitian dan pengujian di dunia nyata diperlukan.
+Fokus pada tinjauan literatur dapat membatasi rekomendasi praktis untuk implementasi langsung di lingkungan IoT.</t>
+  </si>
+  <si>
+    <t>Judul TA</t>
+  </si>
+  <si>
+    <t>Tujuan</t>
+  </si>
+  <si>
+    <t>Metode penyelesaian masalah</t>
+  </si>
+  <si>
+    <t>Kesimpulan</t>
+  </si>
+  <si>
+    <t>Saran</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -377,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +465,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -480,11 +543,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,69 +587,97 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129348A8-1C1A-4064-979B-57C2723345AF}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="22" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -918,9 +1020,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -969,14 +1068,14 @@
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -985,26 +1084,26 @@
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
@@ -1073,14 +1172,14 @@
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="33"/>
+      <c r="G23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="2:8" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
@@ -1089,26 +1188,26 @@
       <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="2:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -1172,14 +1271,14 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="2:8" ht="77.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
@@ -1188,26 +1287,26 @@
       <c r="D39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16" t="s">
+      <c r="F39" s="19"/>
+      <c r="G39" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="2:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
@@ -1271,14 +1370,14 @@
       <c r="D53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="14" t="s">
+      <c r="F53" s="33"/>
+      <c r="G53" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="15"/>
+      <c r="H53" s="33"/>
     </row>
     <row r="54" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
@@ -1287,26 +1386,26 @@
       <c r="D54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="16" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="17"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="13"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
@@ -1370,14 +1469,14 @@
       <c r="D68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="14" t="s">
+      <c r="F68" s="33"/>
+      <c r="G68" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="33"/>
     </row>
     <row r="69" spans="2:8" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
@@ -1386,26 +1485,26 @@
       <c r="D69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="16" t="s">
+      <c r="F69" s="19"/>
+      <c r="G69" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="17"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="13"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
@@ -1469,14 +1568,14 @@
       <c r="D83" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="14" t="s">
+      <c r="F83" s="33"/>
+      <c r="G83" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="15"/>
+      <c r="H83" s="33"/>
     </row>
     <row r="84" spans="3:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
@@ -1485,26 +1584,26 @@
       <c r="D84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="16" t="s">
+      <c r="F84" s="19"/>
+      <c r="G84" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H84" s="17"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="15"/>
+      <c r="D86" s="33"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="13"/>
+      <c r="D87" s="23"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
@@ -1536,16 +1635,16 @@
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="F98" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1564,20 +1663,20 @@
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="26" t="s">
+      <c r="F101" s="26"/>
+      <c r="G101" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H101" s="27"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" spans="3:8" ht="105.4" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
@@ -1586,32 +1685,32 @@
       <c r="D102" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="16" t="s">
+      <c r="F102" s="19"/>
+      <c r="G102" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H102" s="17"/>
+      <c r="H102" s="19"/>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="27"/>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="3:8" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D105" s="13"/>
+      <c r="D105" s="23"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1624,7 +1723,7 @@
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="8">
@@ -1632,16 +1731,16 @@
       </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="E113" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1660,20 +1759,20 @@
       </c>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F116" s="27"/>
-      <c r="G116" s="26" t="s">
+      <c r="F116" s="26"/>
+      <c r="G116" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H116" s="27"/>
+      <c r="H116" s="26"/>
     </row>
     <row r="117" spans="3:8" ht="60.25" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
@@ -1682,196 +1781,244 @@
       <c r="D117" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="16" t="s">
+      <c r="F117" s="19"/>
+      <c r="G117" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H117" s="17"/>
+      <c r="H117" s="19"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="27"/>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="3:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D120" s="13"/>
+      <c r="D120" s="23"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="28" t="s">
+      <c r="D122" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="28"/>
+      <c r="E122" s="24"/>
     </row>
     <row r="123" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E123" s="20"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C130" s="34" t="s">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C134" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C135" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C137" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="43"/>
+      <c r="G137" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C138" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F138" s="19"/>
+      <c r="G138" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C140" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="43"/>
+    </row>
+    <row r="141" spans="3:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="23"/>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C143" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="44"/>
+    </row>
+    <row r="144" spans="3:7" ht="60.25" x14ac:dyDescent="0.3">
+      <c r="C144" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E144" s="17"/>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C146" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C152" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C131" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="29" t="s">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C153" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E131" s="29" t="s">
+      <c r="E153" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F131" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C134" s="29" t="s">
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C154" s="2"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="11"/>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C156" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D134" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="31" t="s">
+      <c r="D156" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F134" s="32"/>
-      <c r="G134" s="31" t="s">
+      <c r="F156" s="21"/>
+      <c r="G156" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="32"/>
-    </row>
-    <row r="135" spans="3:8" ht="60.25" x14ac:dyDescent="0.3">
-      <c r="C135" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="16" t="s">
+      <c r="H156" s="21"/>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H135" s="17"/>
-    </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C137" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="32"/>
-    </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C138" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D138" s="13"/>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C140" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="33"/>
-    </row>
-    <row r="141" spans="3:8" ht="45.2" x14ac:dyDescent="0.3">
-      <c r="C141" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E141" s="20"/>
-    </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C143" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="8">
-        <v>4</v>
-      </c>
+      <c r="H157" s="19"/>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C159" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C160" s="22"/>
+      <c r="D160" s="23"/>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162" s="35"/>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C163" s="6"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C165" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D165" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
+  <mergeCells count="64">
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="G84:H84"/>
@@ -1881,32 +2028,56 @@
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="D162:E162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7AD250DB415C4FB5867649A57761AA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5453886a6cd3b6f266e49a5bb2bbff1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc" xmlns:ns4="84555582-1fd8-462d-916c-584d43361c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ff136199dbbf9c5158804c9410598b8" ns3:_="" ns4:_="">
     <xsd:import namespace="89c1253a-f7ad-4028-b395-8ef7f6c6d0dc"/>
@@ -2145,6 +2316,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2154,14 +2334,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BFF3F2-E4BC-493A-A0DA-3AF5FC7C25C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2176,6 +2348,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBC2FF6-442F-42BA-AF7E-A1EAD5DFC796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
